--- a/data/trans_orig/P78C9_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C9_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6964AD08-6CE9-4DB1-A4E2-08A083916A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87201721-C592-4606-B59B-FC87B9D3A814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ACA4FDB7-6C46-45EF-9D01-32CB04A892AE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{817EB1F1-0595-4E13-947D-BD89E4EF5D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -104,13 +104,13 @@
     <t>100%</t>
   </si>
   <si>
-    <t>14,47%</t>
+    <t>15,56%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>59,15%</t>
+    <t>60,51%</t>
   </si>
   <si>
     <t>0%</t>
@@ -119,10 +119,10 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -134,28 +134,28 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D9D834-5805-49D3-BD8F-A2735007EF36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAC788E-02D6-4ABE-901E-9734F7D54C61}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>19</v>
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>22</v>
@@ -1543,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1366</v>
+        <v>1349</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>24</v>
@@ -1579,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>943</v>
+        <v>881</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -1594,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>943</v>
+        <v>881</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>28</v>
@@ -1615,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>1103</v>
+        <v>1043</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>21</v>
@@ -1645,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>2309</v>
+        <v>2230</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>21</v>
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>2812</v>
+        <v>2319</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>19</v>
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>2812</v>
+        <v>2319</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>19</v>
@@ -1779,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="7">
-        <v>2812</v>
+        <v>2319</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>21</v>
@@ -1794,7 +1794,7 @@
         <v>3</v>
       </c>
       <c r="N27" s="7">
-        <v>2812</v>
+        <v>2319</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>21</v>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>19</v>
@@ -1832,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="I28" s="7">
-        <v>2972</v>
+        <v>2482</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>32</v>
@@ -1847,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="N28" s="7">
-        <v>4178</v>
+        <v>3669</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>34</v>
@@ -1883,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>943</v>
+        <v>880</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>36</v>
@@ -1898,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>943</v>
+        <v>880</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>38</v>
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>21</v>
@@ -1934,7 +1934,7 @@
         <v>6</v>
       </c>
       <c r="I30" s="7">
-        <v>3915</v>
+        <v>3362</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>21</v>
@@ -1949,7 +1949,7 @@
         <v>7</v>
       </c>
       <c r="N30" s="7">
-        <v>5121</v>
+        <v>4549</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>21</v>
